--- a/graph_generation/results_prelim/gpt3.5/level_2/k_1.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_2/k_1.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="o_10" sheetId="1" r:id="rId1"/>
+    <sheet name="o_20" sheetId="2" r:id="rId2"/>
+    <sheet name="o_20_jumbled" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>prompt</t>
   </si>
@@ -26,6 +28,9 @@
   </si>
   <si>
     <t>evaluator_response</t>
+  </si>
+  <si>
+    <t>evaluator_partial_correctness</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
@@ -51,28 +56,181 @@
  Given these examples, answer the following quesiton.
 what is the shortest path from node A to node J?
    A B C D E F G H I J
- A 0 1 0 0 0 0 0 0 0 0
+ A 0 1 0 0 1 0 0 0 0 0
  B 1 0 1 0 0 0 0 0 0 0
- C 0 1 0 1 1 1 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0
  D 0 0 1 0 0 0 0 0 0 0
- E 0 0 1 0 0 0 0 0 0 0
- F 0 0 1 0 0 0 1 0 1 1
+ E 1 0 0 0 0 1 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0
  G 0 0 0 0 0 1 0 1 0 0
- H 0 0 0 0 0 0 1 0 0 0
- I 0 0 0 0 0 1 0 0 0 0
- J 0 0 0 0 0 1 0 0 0 0
+ H 0 0 0 0 0 0 1 0 1 0
+ I 0 0 0 0 0 0 0 1 0 1
+ J 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; C -&gt; F -&gt; J</t>
-  </si>
-  <si>
-    <t>Using the given adjacency matrix, we can find the shortest path from node A to node J. 
-Starting from node A, we can see that there is a connection to node B. Moving to node B, there is a connection to node C. From node C, there is a connection to node F. Moving to node F, there is a connection to node J. 
-Therefore, the shortest path from node A to node J is A -&gt; B -&gt; C -&gt; F -&gt; J.</t>
-  </si>
-  <si>
-    <t>Correct</t>
+    <t>A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>Based on the given adjacency matrix, the shortest path from node A to node J is:
+A -&gt; B -&gt; C -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>Wrong</t>
+  </si>
+  <si>
+    <t>The fraction of correct nodes predicted by the language model is 3/6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: what is the shortest path from node A to node Y?
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ G 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ W 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+Solution: A -&gt; E -&gt; F -&gt; W -&gt; Y
+ Given these examples, answer the following quesiton.
+what is the shortest path from node A to node T?
+   A B C D E F G H I J K L M N O P Q R S T
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; I -&gt; P -&gt; Q -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node A to node T, we can use an algorithm such as Dijkstra's algorithm. This algorithm traverses the graph starting from the source node (A) and visits the neighboring nodes with the shortest distance. As it visits each node, it updates the shortest distance to reach that node. 
+Using Dijkstra's algorithm, we can determine the shortest path from A to T in the given graph:
+1. Initialize the distance array for all nodes with infinity, except for A which is set to 0. 
+   Distance[A] = 0, Distance[B] = ∞, Distance[C] = ∞, Distance[D] = ∞, ... Distance[T] = ∞
+2. Create an empty set of visited nodes.
+3. While the set of visited nodes does not include T:
+   a) Select the node with the minimum distance that is not yet visited. In the first iteration, this will be node A.
+   b) Mark the selected node as visited.
+   c) Update the distance of all neighboring nodes that are not yet visited. The new distance is the minimum of the current distance or the distance from the selected node plus the edge weight.
+      If the current distance is greater than the distance through the selected node, update the distance:
+      Distance[B] = min(Distance[B], Distance[A] + 1) = 1
+      Distance[C] = min(Distance[C], Distance[A] + 1) = 1
+      Distance[E] = min(Distance[E], Distance[A] + 1) = 1
+   d) Repeat steps a)-c) until all nodes are visited or T is reached.
+4. The shortest path from A to T can be determined by backtracking from T to A using the information stored in the distance array. Starting from T, find the node with the smallest distance that is reachable from the current node (with distance + 1) and add it to the path. Repeat this process until the path reaches A.
+Based on the given adjacency matrix, the shortest path from A to T is A -&gt; C -&gt; E -&gt; F -&gt; W -&gt; X -&gt; T.
+Therefore, the shortest path from node A to node T is A -&gt; C -&gt; E -&gt; F -&gt; W -&gt; X -&gt; T.</t>
+  </si>
+  <si>
+    <t>Output: 0/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: what is the shortest path from node A to node Y?
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ G 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ W 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+Solution: A -&gt; E -&gt; F -&gt; W -&gt; Y
+ Given these examples, answer the following quesiton.
+what is the shortest path from node A to node T?
+   A B C D E F G H I J K L M N O P Q R S T
+ A 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; F -&gt; G -&gt; K -&gt; L -&gt; Q -&gt; R -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node A to node T in the given adjacency matrix, we can use the breadth-first search (BFS) algorithm.
+Starting from node A, we explore its neighboring nodes (B and C) and mark them as visited. Then, we continue to explore the neighbors of B and C, marking them as visited.
+Next, we explore the neighbors of node D, which are E and F. We mark these nodes as visited and continue exploring their neighbors.
+We continue this process of exploring the neighbors of the visited nodes until we reach node T.
+Therefore, the shortest path from node A to node T is:
+A -&gt; C -&gt; D -&gt; F -&gt; G -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>Output: 1/6</t>
   </si>
 </sst>
 </file>
@@ -430,13 +588,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,19 +607,119 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/graph_generation/results_prelim/gpt3.5/level_2/k_1.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_2/k_1.xlsx
@@ -35,7 +35,7 @@
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: what is the shortest path from node A to node O?
+Example 1: what is the shortest path from node A to node O? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O
  A 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0
  B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
@@ -54,37 +54,36 @@
  O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
 Solution: A -&gt; M -&gt; N -&gt; O
  Given these examples, answer the following quesiton.
-what is the shortest path from node A to node J?
+what is the shortest path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J
- A 0 1 0 0 1 0 0 0 0 0
- B 1 0 1 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0
- E 1 0 0 0 0 1 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 0
- G 0 0 0 0 0 1 0 1 0 0
+ A 0 1 1 0 0 1 1 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0
+ C 1 0 0 1 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 0
+ F 1 0 0 0 0 0 0 0 0 0
+ G 1 0 0 0 0 0 0 1 0 0
  H 0 0 0 0 0 0 1 0 1 0
  I 0 0 0 0 0 0 0 1 0 1
  J 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t>A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>Based on the given adjacency matrix, the shortest path from node A to node J is:
-A -&gt; B -&gt; C -&gt; I -&gt; J</t>
+    <t>A -&gt; G -&gt; H -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>The shortest path from node A to node J is: A -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J.</t>
   </si>
   <si>
     <t>Wrong</t>
   </si>
   <si>
-    <t>The fraction of correct nodes predicted by the language model is 3/6.</t>
+    <t>1/5</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: what is the shortest path from node A to node Y?
+Example 1: what is the shortest path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
  A 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
@@ -113,59 +112,54 @@
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
 Solution: A -&gt; E -&gt; F -&gt; W -&gt; Y
  Given these examples, answer the following quesiton.
-what is the shortest path from node A to node T?
+what is the shortest path from node A to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0
+ A 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
  L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0
  M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0
+ N 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0
  O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
  R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1
  T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; I -&gt; P -&gt; Q -&gt; S -&gt; T</t>
-  </si>
-  <si>
-    <t>To find the shortest path from node A to node T, we can use an algorithm such as Dijkstra's algorithm. This algorithm traverses the graph starting from the source node (A) and visits the neighboring nodes with the shortest distance. As it visits each node, it updates the shortest distance to reach that node. 
-Using Dijkstra's algorithm, we can determine the shortest path from A to T in the given graph:
-1. Initialize the distance array for all nodes with infinity, except for A which is set to 0. 
-   Distance[A] = 0, Distance[B] = ∞, Distance[C] = ∞, Distance[D] = ∞, ... Distance[T] = ∞
-2. Create an empty set of visited nodes.
-3. While the set of visited nodes does not include T:
-   a) Select the node with the minimum distance that is not yet visited. In the first iteration, this will be node A.
-   b) Mark the selected node as visited.
-   c) Update the distance of all neighboring nodes that are not yet visited. The new distance is the minimum of the current distance or the distance from the selected node plus the edge weight.
-      If the current distance is greater than the distance through the selected node, update the distance:
-      Distance[B] = min(Distance[B], Distance[A] + 1) = 1
-      Distance[C] = min(Distance[C], Distance[A] + 1) = 1
-      Distance[E] = min(Distance[E], Distance[A] + 1) = 1
-   d) Repeat steps a)-c) until all nodes are visited or T is reached.
-4. The shortest path from A to T can be determined by backtracking from T to A using the information stored in the distance array. Starting from T, find the node with the smallest distance that is reachable from the current node (with distance + 1) and add it to the path. Repeat this process until the path reaches A.
-Based on the given adjacency matrix, the shortest path from A to T is A -&gt; C -&gt; E -&gt; F -&gt; W -&gt; X -&gt; T.
-Therefore, the shortest path from node A to node T is A -&gt; C -&gt; E -&gt; F -&gt; W -&gt; X -&gt; T.</t>
-  </si>
-  <si>
-    <t>Output: 0/7</t>
+    <t>A -&gt; G -&gt; H -&gt; N -&gt; P -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node A to node T, we can use a graph search algorithm such as Dijkstra's algorithm or breadth-first search (BFS). Since the graph is unweighted, BFS would be a good choice.
+Starting from node A, we explore the graph by visiting its neighbors. We then visit the neighbors' neighbors, and continue this process until we reach node T.
+Here is the step-by-step process using BFS:
+1. Initialize an empty queue and an empty list to store the visited nodes and the path.
+2. Enqueue node A into the queue.
+3. While the queue is not empty, do the following:
+   a. Dequeue a node from the front of the queue.
+   b. If the dequeued node is node T, stop the algorithm and return the path.
+   c. Otherwise, mark the dequeued node as visited and add it to the visited nodes list.
+   d. Enqueue all the unvisited neighbors of the dequeued node into the queue.
+4. If no path is found (i.e., node T is not reachable from node A), return an empty path.
+Using this algorithm, we find that the shortest path from node A to node T is: A -&gt; B -&gt; D -&gt; S -&gt; T.</t>
+  </si>
+  <si>
+    <t>0/7</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: what is the shortest path from node A to node Y?
+Example 1: what is the shortest path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
  A 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
@@ -194,43 +188,38 @@
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
 Solution: A -&gt; E -&gt; F -&gt; W -&gt; Y
  Given these examples, answer the following quesiton.
-what is the shortest path from node A to node T?
+what is the shortest path from node A to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0
+ A 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
  H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
  I 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
  J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0
+ K 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0
  O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0
  R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
  S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
  T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t>A -&gt; F -&gt; G -&gt; K -&gt; L -&gt; Q -&gt; R -&gt; S -&gt; T</t>
-  </si>
-  <si>
-    <t>To find the shortest path from node A to node T in the given adjacency matrix, we can use the breadth-first search (BFS) algorithm.
-Starting from node A, we explore its neighboring nodes (B and C) and mark them as visited. Then, we continue to explore the neighbors of B and C, marking them as visited.
-Next, we explore the neighbors of node D, which are E and F. We mark these nodes as visited and continue exploring their neighbors.
-We continue this process of exploring the neighbors of the visited nodes until we reach node T.
-Therefore, the shortest path from node A to node T is:
-A -&gt; C -&gt; D -&gt; F -&gt; G -&gt; S -&gt; T</t>
-  </si>
-  <si>
-    <t>Output: 1/6</t>
+    <t>A -&gt; K -&gt; N -&gt; Q -&gt; R -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>The shortest path from node A to node T is A -&gt; K -&gt; R -&gt; S -&gt; T.</t>
+  </si>
+  <si>
+    <t>2/7</t>
   </si>
 </sst>
 </file>
